--- a/InterviewTest/output/230029/230029_failed.xlsx
+++ b/InterviewTest/output/230029/230029_failed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230029\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E05D58-3D60-4D65-B680-B2CD714E0284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3DCDFB-0A8E-41AE-B64F-0EC92FEA48C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <t>null</t>
   </si>
   <si>
-    <t>Example:  TOAN_CH: 14.85; TIN_CH: 14.85</t>
+    <t>Example:  TOAN_CH: 19.75; TIN_CH: 14.85</t>
   </si>
   <si>
     <t>Fail</t>

--- a/InterviewTest/output/230029/230029_failed.xlsx
+++ b/InterviewTest/output/230029/230029_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230029\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230029\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3DCDFB-0A8E-41AE-B64F-0EC92FEA48C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB674490-679B-44A2-8427-E75D85ECE8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>39550</v>
+        <v>39786</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" customHeight="1" thickBot="1">

--- a/InterviewTest/output/230029/230029_failed.xlsx
+++ b/InterviewTest/output/230029/230029_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230029\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230029\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB674490-679B-44A2-8427-E75D85ECE8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5753CD4-C32D-4A05-BDD8-4EADDD0A7EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t xml:space="preserve">Field </t>
   </si>
@@ -89,19 +89,16 @@
     <t>Full Name</t>
   </si>
   <si>
-    <t>Thạch Truyền Anh</t>
+    <t>Tống Phương Anh</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
-    <t>Example:  TOAN_CH: 19.75; TIN_CH: 14.85</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Example:  TOAN_CH; TIN_CH</t>
+    <t>Not enough information</t>
   </si>
 </sst>
 </file>
@@ -542,23 +539,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>39786</v>
+        <v>45149</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>5</v>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" customHeight="1" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>6</v>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -566,15 +563,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>2</v>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -589,16 +586,16 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
+      <c r="B9" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" customHeight="1" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -629,16 +626,14 @@
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -646,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
